--- a/Output.xlsx
+++ b/Output.xlsx
@@ -36,6 +36,11 @@
     <sheet name="0.5x10.12" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="0.5x10.13" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="0.5x10.14" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="0.5x10.15" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="0.5x10.16" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="0.5x10.17" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="0.5x10.18" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="0.5x10.19" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3728,6 +3733,696 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21/6/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>fwd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>strike</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>expiry</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.017859495272075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>vol</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>tenor</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PAYER</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9771521051671719</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>interpolated</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21/6/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>fwd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>strike</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>expiry</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.017859495272075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>vol</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>tenor</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PAYER</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9771521051671719</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>interpolated</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21/6/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>fwd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>strike</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>expiry</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.017859495272075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>vol</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>tenor</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PAYER</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9771521051671719</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>interpolated</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21/6/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>fwd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>strike</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>expiry</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.017859495272075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>vol</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>tenor</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PAYER</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8021397878237978</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>interpolated</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21/6/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>fwd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>strike</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>expiry</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>rf</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.017859495272075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>vol</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>tenor</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PAYER</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9771521051671719</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>interpolated</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
